--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3609369.436345058</v>
+        <v>3606341.137173901</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8384684.614572191</v>
+        <v>8384684.614572193</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215213.109710897</v>
+        <v>215213.1097108978</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7839333.116815484</v>
+        <v>7839333.116815483</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>5.309829763041575</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>5.309829763041574</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.056421089299432</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -986,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>5.309829763041574</v>
       </c>
       <c r="X6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="R7" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>3.487951988786138</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>11.91464376220976</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,28 +1296,28 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>13.47865120333094</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>15.30273751513505</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>315.1771914778903</v>
       </c>
       <c r="D11" t="n">
-        <v>304.5873413275658</v>
+        <v>304.5873413275641</v>
       </c>
       <c r="E11" t="n">
         <v>331.8346697791446</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.59698089341289</v>
+        <v>62.59698089341286</v>
       </c>
       <c r="T11" t="n">
-        <v>154.4955681313646</v>
+        <v>154.4955681313651</v>
       </c>
       <c r="U11" t="n">
         <v>200.9117763745886</v>
@@ -1533,22 +1533,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D13" t="n">
-        <v>98.51977272509517</v>
+        <v>98.51977272509515</v>
       </c>
       <c r="E13" t="n">
-        <v>96.33826235345205</v>
+        <v>96.33826235345197</v>
       </c>
       <c r="F13" t="n">
-        <v>95.32534772981406</v>
+        <v>95.32534772981404</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9991013254697</v>
+        <v>115.9991013254696</v>
       </c>
       <c r="H13" t="n">
         <v>95.2727283089157</v>
       </c>
       <c r="I13" t="n">
-        <v>48.33153860235655</v>
+        <v>48.33153860235645</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762961</v>
       </c>
       <c r="S13" t="n">
         <v>140.8756911317236</v>
@@ -1609,7 +1609,7 @@
         <v>332.6381413703634</v>
       </c>
       <c r="C14" t="n">
-        <v>315.1771914778901</v>
+        <v>315.1771914778903</v>
       </c>
       <c r="D14" t="n">
         <v>304.5873413275658</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.59698089341289</v>
+        <v>62.59698089341104</v>
       </c>
       <c r="T14" t="n">
         <v>154.4955681313651</v>
@@ -1770,22 +1770,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D16" t="n">
-        <v>98.51977272509517</v>
+        <v>98.51977272509515</v>
       </c>
       <c r="E16" t="n">
-        <v>96.33826235345198</v>
+        <v>96.33826235345197</v>
       </c>
       <c r="F16" t="n">
-        <v>95.32534772981406</v>
+        <v>95.32534772981404</v>
       </c>
       <c r="G16" t="n">
-        <v>115.9991013254697</v>
+        <v>115.9991013254696</v>
       </c>
       <c r="H16" t="n">
-        <v>95.2727283089157</v>
+        <v>95.27272830891569</v>
       </c>
       <c r="I16" t="n">
-        <v>48.33153860235645</v>
+        <v>48.33153860235654</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S16" t="n">
         <v>140.8756911317236</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.638141370363</v>
+        <v>332.6381413703634</v>
       </c>
       <c r="C17" t="n">
         <v>315.1771914778903</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.59698089341289</v>
+        <v>62.59698089341286</v>
       </c>
       <c r="T17" t="n">
         <v>154.4955681313651</v>
       </c>
       <c r="U17" t="n">
-        <v>200.9117763745886</v>
+        <v>200.9117763745869</v>
       </c>
       <c r="V17" t="n">
         <v>277.6565581770177</v>
@@ -2007,22 +2007,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D19" t="n">
-        <v>98.51977272509517</v>
+        <v>98.51977272509515</v>
       </c>
       <c r="E19" t="n">
-        <v>96.33826235345198</v>
+        <v>96.33826235345197</v>
       </c>
       <c r="F19" t="n">
-        <v>95.32534772981406</v>
+        <v>95.32534772981404</v>
       </c>
       <c r="G19" t="n">
-        <v>115.9991013254697</v>
+        <v>115.9991013254696</v>
       </c>
       <c r="H19" t="n">
-        <v>95.2727283089157</v>
+        <v>95.27272830891569</v>
       </c>
       <c r="I19" t="n">
-        <v>48.33153860235655</v>
+        <v>48.33153860235654</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S19" t="n">
         <v>140.8756911317236</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.5969808934124</v>
+        <v>62.59698089341285</v>
       </c>
       <c r="T20" t="n">
         <v>154.4955681313651</v>
       </c>
       <c r="U20" t="n">
-        <v>200.9117763745886</v>
+        <v>200.9117763745874</v>
       </c>
       <c r="V20" t="n">
         <v>277.6565581770177</v>
@@ -2244,22 +2244,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D22" t="n">
-        <v>98.51977272509517</v>
+        <v>98.51977272509515</v>
       </c>
       <c r="E22" t="n">
-        <v>96.33826235345198</v>
+        <v>96.33826235345197</v>
       </c>
       <c r="F22" t="n">
-        <v>95.32534772981406</v>
+        <v>95.32534772981404</v>
       </c>
       <c r="G22" t="n">
-        <v>115.9991013254697</v>
+        <v>115.9991013254696</v>
       </c>
       <c r="H22" t="n">
-        <v>95.2727283089157</v>
+        <v>95.27272830891569</v>
       </c>
       <c r="I22" t="n">
-        <v>48.33153860235655</v>
+        <v>48.33153860235727</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S22" t="n">
         <v>140.8756911317236</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.59698089341289</v>
+        <v>62.59698089341286</v>
       </c>
       <c r="T23" t="n">
         <v>154.4955681313651</v>
@@ -2481,22 +2481,22 @@
         <v>117.1511208055106</v>
       </c>
       <c r="D25" t="n">
-        <v>98.51977272509517</v>
+        <v>98.51977272509515</v>
       </c>
       <c r="E25" t="n">
-        <v>96.33826235345198</v>
+        <v>96.33826235345197</v>
       </c>
       <c r="F25" t="n">
-        <v>95.32534772981406</v>
+        <v>95.32534772981404</v>
       </c>
       <c r="G25" t="n">
-        <v>115.9991013254697</v>
+        <v>115.9991013254696</v>
       </c>
       <c r="H25" t="n">
-        <v>95.2727283089157</v>
+        <v>95.27272830891569</v>
       </c>
       <c r="I25" t="n">
-        <v>48.33153860235655</v>
+        <v>48.33153860235654</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.93864470762963</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S25" t="n">
         <v>140.8756911317236</v>
@@ -2611,7 +2611,7 @@
         <v>204.5912684244825</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0074766677053</v>
+        <v>251.0074766677062</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>166.0948016185868</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.3684286020329</v>
       </c>
       <c r="I28" t="n">
-        <v>98.42723889547375</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.03434500074682</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.9713914248408</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.8437390851924</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2156014797706</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>47.15452838597426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>40.33070631417166</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>112.6926811865301</v>
+        <v>112.6926811865299</v>
       </c>
       <c r="T29" t="n">
         <v>204.5912684244823</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0074766677058</v>
+        <v>251.0074766677062</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0948016185868</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.3684286020329</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.42723889547375</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.03434500074682</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.9713914248408</v>
+        <v>106.2919387798733</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.8437390851924</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2156014797706</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>76.10806606627087</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,25 +3031,25 @@
         <v>380.5536879678604</v>
       </c>
       <c r="C32" t="n">
-        <v>363.0927380753874</v>
+        <v>363.0927380753873</v>
       </c>
       <c r="D32" t="n">
-        <v>352.5028879250628</v>
+        <v>352.5028879250627</v>
       </c>
       <c r="E32" t="n">
         <v>379.7502163766416</v>
       </c>
       <c r="F32" t="n">
-        <v>404.6958920460913</v>
+        <v>404.6958920460912</v>
       </c>
       <c r="G32" t="n">
         <v>408.8953808178817</v>
       </c>
       <c r="H32" t="n">
-        <v>294.0028056796716</v>
+        <v>294.0028056796715</v>
       </c>
       <c r="I32" t="n">
-        <v>45.32649215432398</v>
+        <v>45.3264921543239</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>110.5125274909099</v>
+        <v>110.51252749091</v>
       </c>
       <c r="T32" t="n">
-        <v>202.4111147288621</v>
+        <v>202.411114728862</v>
       </c>
       <c r="U32" t="n">
         <v>248.8273229720872</v>
@@ -3094,7 +3094,7 @@
         <v>347.0608150217928</v>
       </c>
       <c r="X32" t="n">
-        <v>367.5509469828489</v>
+        <v>367.5509469828488</v>
       </c>
       <c r="Y32" t="n">
         <v>384.0577849604334</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6518264863171</v>
+        <v>177.651826486317</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>138.6471637458326</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>89.85419130512658</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>188.7912377292205</v>
       </c>
       <c r="T34" t="n">
-        <v>217.6635853895722</v>
+        <v>217.6635853895721</v>
       </c>
       <c r="U34" t="n">
         <v>284.0354477841504</v>
       </c>
       <c r="V34" t="n">
-        <v>249.9574896282078</v>
+        <v>109.9592243396949</v>
       </c>
       <c r="W34" t="n">
         <v>284.3428446409708</v>
       </c>
       <c r="X34" t="n">
-        <v>223.529501693417</v>
+        <v>223.5295016934169</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.4044996564746</v>
+        <v>216.4044996564745</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.5969808934124</v>
+        <v>62.59698089341287</v>
       </c>
       <c r="T35" t="n">
         <v>154.4955681313651</v>
       </c>
       <c r="U35" t="n">
-        <v>200.9117763745887</v>
+        <v>200.9117763745882</v>
       </c>
       <c r="V35" t="n">
         <v>277.6565581770177</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.93864470762988</v>
+        <v>41.93864470762962</v>
       </c>
       <c r="S37" t="n">
         <v>140.8756911317236</v>
       </c>
       <c r="T37" t="n">
-        <v>169.7480387920749</v>
+        <v>169.7480387920752</v>
       </c>
       <c r="U37" t="n">
-        <v>236.1199011866536</v>
+        <v>236.1199011866534</v>
       </c>
       <c r="V37" t="n">
         <v>202.0419430307108</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.59698089341286</v>
+        <v>62.59698089341287</v>
       </c>
       <c r="T38" t="n">
-        <v>154.4955681313642</v>
+        <v>154.4955681313651</v>
       </c>
       <c r="U38" t="n">
-        <v>200.9117763745886</v>
+        <v>200.9117763745882</v>
       </c>
       <c r="V38" t="n">
         <v>277.6565581770177</v>
@@ -3678,10 +3678,10 @@
         <v>115.9991013254696</v>
       </c>
       <c r="H40" t="n">
-        <v>95.27272830891569</v>
+        <v>95.2727283089157</v>
       </c>
       <c r="I40" t="n">
-        <v>48.33153860235654</v>
+        <v>48.33153860235655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.93864470762962</v>
+        <v>41.93864470762963</v>
       </c>
       <c r="S40" t="n">
         <v>140.8756911317236</v>
@@ -3717,7 +3717,7 @@
         <v>169.7480387920752</v>
       </c>
       <c r="U40" t="n">
-        <v>236.1199011866534</v>
+        <v>236.1199011866532</v>
       </c>
       <c r="V40" t="n">
         <v>202.0419430307108</v>
@@ -3757,7 +3757,7 @@
         <v>360.9798342203847</v>
       </c>
       <c r="H41" t="n">
-        <v>246.0872590821739</v>
+        <v>246.0872590821745</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>62.59698089341286</v>
       </c>
       <c r="T41" t="n">
-        <v>154.4955681313651</v>
+        <v>154.4955681313646</v>
       </c>
       <c r="U41" t="n">
         <v>200.9117763745886</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.93864470762962</v>
+        <v>41.93864470762943</v>
       </c>
       <c r="S43" t="n">
         <v>140.8756911317236</v>
@@ -3966,7 +3966,7 @@
         <v>175.6139550959199</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.4889530589778</v>
+        <v>168.4889530589776</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.59698089341286</v>
+        <v>62.5969808934124</v>
       </c>
       <c r="T44" t="n">
         <v>154.4955681313651</v>
@@ -4042,7 +4042,7 @@
         <v>299.1452684242958</v>
       </c>
       <c r="X44" t="n">
-        <v>319.6354003853511</v>
+        <v>319.6354003853518</v>
       </c>
       <c r="Y44" t="n">
         <v>336.1422383629364</v>
@@ -4143,7 +4143,7 @@
         <v>98.51977272509515</v>
       </c>
       <c r="E46" t="n">
-        <v>96.33826235345217</v>
+        <v>96.33826235345197</v>
       </c>
       <c r="F46" t="n">
         <v>95.32534772981404</v>
@@ -4203,7 +4203,7 @@
         <v>175.6139550959199</v>
       </c>
       <c r="Y46" t="n">
-        <v>168.4889530589776</v>
+        <v>168.4889530589778</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F2" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J2" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L2" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M2" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N2" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4354,28 +4354,28 @@
         <v>20.55868221764227</v>
       </c>
       <c r="R2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13.6131814684388</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.6131814684388</v>
+      </c>
+      <c r="E3" t="n">
         <v>8.2497170613261</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>8.2497170613261</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>8.2497170613261</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.304216312122629</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.304216312122629</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.304216312122629</v>
       </c>
       <c r="H3" t="n">
         <v>1.304216312122629</v>
@@ -4412,49 +4412,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M3" t="n">
-        <v>20.97193951221988</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N3" t="n">
-        <v>27.50418296684575</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W3" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X3" t="n">
-        <v>15.19521781052957</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5500836593369149</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G4" t="n">
         <v>0.5500836593369149</v>
@@ -4494,46 +4494,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L4" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M4" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N4" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S4" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T4" t="n">
-        <v>20.55868221764227</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U4" t="n">
-        <v>13.6131814684388</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V4" t="n">
-        <v>6.667680719235332</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W4" t="n">
-        <v>6.667680719235332</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5500836593369149</v>
+        <v>24.75525293138463</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6131814684388</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
-        <v>6.667680719235332</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M5" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N5" t="n">
         <v>13.8896123982571</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4588,31 +4588,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="C6" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="D6" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="E6" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="F6" t="n">
-        <v>14.44108515774386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J6" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
-        <v>20.97193951221988</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="N6" t="n">
-        <v>27.50418296684575</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="X6" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C7" t="n">
         <v>14.44108515774386</v>
       </c>
       <c r="D7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
         <v>0.5500836593369149</v>
@@ -4737,16 +4737,16 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
         <v>21.38658590694733</v>
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.62703037176281</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C8" t="n">
-        <v>23.62703037176281</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D8" t="n">
-        <v>23.62703037176281</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E8" t="n">
-        <v>23.62703037176281</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F8" t="n">
         <v>16.68152962255934</v>
@@ -4810,16 +4810,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O8" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
@@ -4828,28 +4828,28 @@
         <v>51.11933469231312</v>
       </c>
       <c r="R8" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="S8" t="n">
-        <v>35.66202407096459</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="T8" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="U8" t="n">
-        <v>23.62703037176281</v>
+        <v>51.11933469231312</v>
       </c>
       <c r="V8" t="n">
-        <v>23.62703037176281</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="W8" t="n">
-        <v>23.62703037176281</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="X8" t="n">
-        <v>23.62703037176281</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="Y8" t="n">
-        <v>23.62703037176281</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>61.2109500605402</v>
+      </c>
+      <c r="C9" t="n">
         <v>45.75363943919166</v>
       </c>
-      <c r="C9" t="n">
-        <v>30.29632881784312</v>
-      </c>
       <c r="D9" t="n">
-        <v>30.29632881784312</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="E9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F9" t="n">
-        <v>30.29632881784312</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
         <v>17.43566227534506</v>
@@ -4886,16 +4886,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O9" t="n">
         <v>30.9115297805728</v>
@@ -4919,16 +4919,16 @@
         <v>61.2109500605402</v>
       </c>
       <c r="V9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="C10" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="D10" t="n">
-        <v>14.83901819649459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="E10" t="n">
-        <v>14.83901819649459</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="F10" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="G10" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="H10" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="I10" t="n">
-        <v>1.224219001210804</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="J10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4980,34 +4980,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>45.75363943919166</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>45.75363943919166</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>45.75363943919166</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="T10" t="n">
-        <v>45.75363943919166</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="U10" t="n">
-        <v>30.29632881784312</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="V10" t="n">
-        <v>30.29632881784312</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="W10" t="n">
-        <v>30.29632881784312</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="X10" t="n">
-        <v>30.29632881784312</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.29632881784312</v>
+        <v>32.13884024390788</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2015.162935454691</v>
+        <v>2015.162935454689</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982073</v>
       </c>
       <c r="D11" t="n">
         <v>1389.138154843119</v>
@@ -5029,64 +5029,64 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F11" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908573</v>
       </c>
       <c r="G11" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H11" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="I11" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J11" t="n">
-        <v>256.3236878177011</v>
+        <v>423.7293368380541</v>
       </c>
       <c r="K11" t="n">
-        <v>839.6885819188019</v>
+        <v>839.688581918801</v>
       </c>
       <c r="L11" t="n">
-        <v>1266.693325401935</v>
+        <v>1266.693325401934</v>
       </c>
       <c r="M11" t="n">
-        <v>1773.487814976845</v>
+        <v>1773.487814976844</v>
       </c>
       <c r="N11" t="n">
-        <v>2293.096577609237</v>
+        <v>2293.096577609236</v>
       </c>
       <c r="O11" t="n">
-        <v>2770.413136545769</v>
+        <v>2770.413136545768</v>
       </c>
       <c r="P11" t="n">
-        <v>3461.871496720032</v>
+        <v>3461.871496720031</v>
       </c>
       <c r="Q11" t="n">
-        <v>3903.906168958818</v>
+        <v>3903.906168958817</v>
       </c>
       <c r="R11" t="n">
-        <v>4018.417412342904</v>
+        <v>4018.417412342903</v>
       </c>
       <c r="S11" t="n">
-        <v>3955.188138713194</v>
+        <v>3955.188138713193</v>
       </c>
       <c r="T11" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287572</v>
       </c>
       <c r="U11" t="n">
-        <v>3596.190821030413</v>
+        <v>3596.190821030411</v>
       </c>
       <c r="V11" t="n">
-        <v>3315.729651154638</v>
+        <v>3315.729651154636</v>
       </c>
       <c r="W11" t="n">
-        <v>3013.562713352319</v>
+        <v>3013.562713352317</v>
       </c>
       <c r="X11" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051016</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H12" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635758</v>
       </c>
       <c r="I12" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J12" t="n">
-        <v>166.3482961235085</v>
+        <v>287.3258890201546</v>
       </c>
       <c r="K12" t="n">
-        <v>391.4565464542376</v>
+        <v>512.4341393508837</v>
       </c>
       <c r="L12" t="n">
-        <v>740.4649102625887</v>
+        <v>861.4425031592348</v>
       </c>
       <c r="M12" t="n">
-        <v>1167.098077338167</v>
+        <v>1288.075670234813</v>
       </c>
       <c r="N12" t="n">
-        <v>1619.431599775374</v>
+        <v>1740.40919267202</v>
       </c>
       <c r="O12" t="n">
-        <v>2011.008607080116</v>
+        <v>2131.986199976763</v>
       </c>
       <c r="P12" t="n">
-        <v>2305.950611237669</v>
+        <v>2426.928204134315</v>
       </c>
       <c r="Q12" t="n">
         <v>2574.169926664026</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>754.0429662777813</v>
+        <v>754.0429662777815</v>
       </c>
       <c r="C13" t="n">
-        <v>635.7085008176695</v>
+        <v>635.7085008176697</v>
       </c>
       <c r="D13" t="n">
-        <v>536.1935788731289</v>
+        <v>536.1935788731291</v>
       </c>
       <c r="E13" t="n">
-        <v>438.8822027585309</v>
+        <v>438.8822027585312</v>
       </c>
       <c r="F13" t="n">
-        <v>342.5939727284156</v>
+        <v>342.593972728416</v>
       </c>
       <c r="G13" t="n">
-        <v>225.4231633087493</v>
+        <v>225.4231633087491</v>
       </c>
       <c r="H13" t="n">
-        <v>129.1880842088344</v>
+        <v>129.1880842088343</v>
       </c>
       <c r="I13" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J13" t="n">
-        <v>170.2566717683931</v>
+        <v>170.2566717683929</v>
       </c>
       <c r="K13" t="n">
-        <v>415.9029817910227</v>
+        <v>415.902981791023</v>
       </c>
       <c r="L13" t="n">
-        <v>771.9026669097095</v>
+        <v>771.9026669097099</v>
       </c>
       <c r="M13" t="n">
         <v>1154.947583309621</v>
@@ -5217,7 +5217,7 @@
         <v>1874.768379733461</v>
       </c>
       <c r="P13" t="n">
-        <v>2148.709634557195</v>
+        <v>2148.709634557196</v>
       </c>
       <c r="Q13" t="n">
         <v>2270.195193485846</v>
@@ -5229,13 +5229,13 @@
         <v>2085.53424819357</v>
       </c>
       <c r="T13" t="n">
-        <v>1914.071582747029</v>
+        <v>1914.07158274703</v>
       </c>
       <c r="U13" t="n">
         <v>1675.56663205344</v>
       </c>
       <c r="V13" t="n">
-        <v>1471.483861315348</v>
+        <v>1471.483861315349</v>
       </c>
       <c r="W13" t="n">
         <v>1232.668408746183</v>
@@ -5244,7 +5244,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y13" t="n">
-        <v>885.0897136402258</v>
+        <v>885.089713640226</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2015.16293545469</v>
+        <v>2015.162935454691</v>
       </c>
       <c r="C14" t="n">
         <v>1696.802135982074</v>
@@ -5266,58 +5266,58 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F14" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908573</v>
       </c>
       <c r="G14" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H14" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="I14" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J14" t="n">
-        <v>423.7293368380542</v>
+        <v>423.7293368380541</v>
       </c>
       <c r="K14" t="n">
-        <v>839.6885819188019</v>
+        <v>1059.083255829778</v>
       </c>
       <c r="L14" t="n">
-        <v>1266.693325401935</v>
+        <v>1795.465887245007</v>
       </c>
       <c r="M14" t="n">
-        <v>1773.487814976845</v>
+        <v>2302.260376819918</v>
       </c>
       <c r="N14" t="n">
-        <v>2293.096577609237</v>
+        <v>2821.869139452309</v>
       </c>
       <c r="O14" t="n">
-        <v>2770.413136545769</v>
+        <v>3299.185698388842</v>
       </c>
       <c r="P14" t="n">
-        <v>3461.871496720032</v>
+        <v>3672.063337473337</v>
       </c>
       <c r="Q14" t="n">
-        <v>3903.906168958818</v>
+        <v>3903.906168958817</v>
       </c>
       <c r="R14" t="n">
-        <v>4018.417412342904</v>
+        <v>4018.417412342903</v>
       </c>
       <c r="S14" t="n">
-        <v>3955.188138713194</v>
+        <v>3955.188138713195</v>
       </c>
       <c r="T14" t="n">
-        <v>3799.132009287573</v>
+        <v>3799.132009287574</v>
       </c>
       <c r="U14" t="n">
         <v>3596.190821030413</v>
       </c>
       <c r="V14" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W14" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X14" t="n">
         <v>2690.698672559034</v>
@@ -5351,22 +5351,22 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H15" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635758</v>
       </c>
       <c r="I15" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J15" t="n">
-        <v>166.3482961235085</v>
+        <v>287.3258890201546</v>
       </c>
       <c r="K15" t="n">
-        <v>391.4565464542376</v>
+        <v>512.4341393508837</v>
       </c>
       <c r="L15" t="n">
-        <v>740.4649102625887</v>
+        <v>861.4425031592348</v>
       </c>
       <c r="M15" t="n">
-        <v>1167.098077338167</v>
+        <v>1288.075670234813</v>
       </c>
       <c r="N15" t="n">
         <v>1740.40919267202</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>754.0429662777813</v>
+        <v>754.042966277781</v>
       </c>
       <c r="C16" t="n">
-        <v>635.7085008176695</v>
+        <v>635.7085008176692</v>
       </c>
       <c r="D16" t="n">
-        <v>536.1935788731289</v>
+        <v>536.1935788731287</v>
       </c>
       <c r="E16" t="n">
-        <v>438.8822027585309</v>
+        <v>438.8822027585308</v>
       </c>
       <c r="F16" t="n">
-        <v>342.5939727284155</v>
+        <v>342.5939727284156</v>
       </c>
       <c r="G16" t="n">
         <v>225.4231633087492</v>
       </c>
       <c r="H16" t="n">
-        <v>129.1880842088343</v>
+        <v>129.1880842088344</v>
       </c>
       <c r="I16" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J16" t="n">
-        <v>170.2566717683931</v>
+        <v>170.256671768393</v>
       </c>
       <c r="K16" t="n">
         <v>415.9029817910227</v>
@@ -5481,7 +5481,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y16" t="n">
-        <v>885.0897136402258</v>
+        <v>885.0897136402256</v>
       </c>
     </row>
     <row r="17">
@@ -5503,58 +5503,58 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F17" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908573</v>
       </c>
       <c r="G17" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H17" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="I17" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J17" t="n">
-        <v>423.7293368380542</v>
+        <v>423.7293368380541</v>
       </c>
       <c r="K17" t="n">
-        <v>839.6885819188019</v>
+        <v>738.1792973843254</v>
       </c>
       <c r="L17" t="n">
-        <v>1266.693325401935</v>
+        <v>1165.184040867458</v>
       </c>
       <c r="M17" t="n">
-        <v>1773.487814976845</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N17" t="n">
-        <v>2293.096577609237</v>
+        <v>2191.58729307476</v>
       </c>
       <c r="O17" t="n">
-        <v>2770.413136545769</v>
+        <v>2835.47239222002</v>
       </c>
       <c r="P17" t="n">
-        <v>3461.871496720032</v>
+        <v>3526.930752394283</v>
       </c>
       <c r="Q17" t="n">
-        <v>3903.906168958818</v>
+        <v>3968.965424633069</v>
       </c>
       <c r="R17" t="n">
-        <v>4018.417412342904</v>
+        <v>4018.417412342903</v>
       </c>
       <c r="S17" t="n">
-        <v>3955.188138713194</v>
+        <v>3955.188138713193</v>
       </c>
       <c r="T17" t="n">
-        <v>3799.132009287573</v>
+        <v>3799.132009287572</v>
       </c>
       <c r="U17" t="n">
         <v>3596.190821030413</v>
       </c>
       <c r="V17" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W17" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X17" t="n">
         <v>2690.698672559034</v>
@@ -5588,31 +5588,31 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H18" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635758</v>
       </c>
       <c r="I18" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J18" t="n">
-        <v>166.3482961235085</v>
+        <v>287.3258890201546</v>
       </c>
       <c r="K18" t="n">
-        <v>391.4565464542376</v>
+        <v>512.4341393508837</v>
       </c>
       <c r="L18" t="n">
-        <v>740.4649102625887</v>
+        <v>861.4425031592348</v>
       </c>
       <c r="M18" t="n">
-        <v>1167.098077338167</v>
+        <v>1288.075670234813</v>
       </c>
       <c r="N18" t="n">
-        <v>1619.431599775374</v>
+        <v>1740.40919267202</v>
       </c>
       <c r="O18" t="n">
-        <v>2011.008607080116</v>
+        <v>2131.986199976763</v>
       </c>
       <c r="P18" t="n">
-        <v>2305.950611237669</v>
+        <v>2426.928204134315</v>
       </c>
       <c r="Q18" t="n">
         <v>2574.169926664026</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2502.26518513484</v>
+        <v>754.042966277781</v>
       </c>
       <c r="C19" t="n">
-        <v>2383.930719674728</v>
+        <v>635.7085008176692</v>
       </c>
       <c r="D19" t="n">
-        <v>2284.415797730187</v>
+        <v>536.1935788731287</v>
       </c>
       <c r="E19" t="n">
-        <v>2187.104421615589</v>
+        <v>438.8822027585308</v>
       </c>
       <c r="F19" t="n">
-        <v>2090.816191585474</v>
+        <v>342.5939727284156</v>
       </c>
       <c r="G19" t="n">
-        <v>1973.645382165808</v>
+        <v>225.4231633087492</v>
       </c>
       <c r="H19" t="n">
-        <v>1877.410303065893</v>
+        <v>129.1880842088344</v>
       </c>
       <c r="I19" t="n">
-        <v>1828.590567103917</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J19" t="n">
-        <v>1918.478890625451</v>
+        <v>170.256671768393</v>
       </c>
       <c r="K19" t="n">
-        <v>2164.125200648081</v>
+        <v>415.9029817910227</v>
       </c>
       <c r="L19" t="n">
-        <v>2520.124885766768</v>
+        <v>771.9026669097095</v>
       </c>
       <c r="M19" t="n">
-        <v>2903.169802166679</v>
+        <v>1154.947583309621</v>
       </c>
       <c r="N19" t="n">
-        <v>3283.720635169677</v>
+        <v>1535.498416312619</v>
       </c>
       <c r="O19" t="n">
-        <v>3622.99059859052</v>
+        <v>1874.768379733461</v>
       </c>
       <c r="P19" t="n">
-        <v>3896.931853414254</v>
+        <v>2148.709634557195</v>
       </c>
       <c r="Q19" t="n">
-        <v>4018.417412342904</v>
+        <v>2270.195193485846</v>
       </c>
       <c r="R19" t="n">
-        <v>3976.05514496146</v>
+        <v>2227.832926104402</v>
       </c>
       <c r="S19" t="n">
-        <v>3833.756467050629</v>
+        <v>2085.53424819357</v>
       </c>
       <c r="T19" t="n">
-        <v>3662.293801604088</v>
+        <v>1914.071582747029</v>
       </c>
       <c r="U19" t="n">
-        <v>3423.788850910499</v>
+        <v>1675.56663205344</v>
       </c>
       <c r="V19" t="n">
-        <v>3219.706080172407</v>
+        <v>1471.483861315348</v>
       </c>
       <c r="W19" t="n">
-        <v>2980.890627603241</v>
+        <v>1232.668408746183</v>
       </c>
       <c r="X19" t="n">
-        <v>2803.502794173019</v>
+        <v>1055.280575315961</v>
       </c>
       <c r="Y19" t="n">
-        <v>2633.311932497284</v>
+        <v>885.0897136402256</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2015.162935454691</v>
+        <v>2015.16293545469</v>
       </c>
       <c r="C20" t="n">
         <v>1696.802135982074</v>
@@ -5740,22 +5740,22 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F20" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908572</v>
       </c>
       <c r="G20" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H20" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="I20" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J20" t="n">
-        <v>423.7293368380542</v>
+        <v>423.7293368380541</v>
       </c>
       <c r="K20" t="n">
-        <v>738.1792973843255</v>
+        <v>738.1792973843254</v>
       </c>
       <c r="L20" t="n">
         <v>1165.184040867458</v>
@@ -5767,31 +5767,31 @@
         <v>2191.58729307476</v>
       </c>
       <c r="O20" t="n">
-        <v>2770.413136545769</v>
+        <v>2770.413136545768</v>
       </c>
       <c r="P20" t="n">
-        <v>3461.871496720032</v>
+        <v>3461.871496720031</v>
       </c>
       <c r="Q20" t="n">
-        <v>3903.906168958818</v>
+        <v>3903.906168958817</v>
       </c>
       <c r="R20" t="n">
-        <v>4018.417412342904</v>
+        <v>4018.417412342903</v>
       </c>
       <c r="S20" t="n">
-        <v>3955.188138713195</v>
+        <v>3955.188138713193</v>
       </c>
       <c r="T20" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287572</v>
       </c>
       <c r="U20" t="n">
         <v>3596.190821030413</v>
       </c>
       <c r="V20" t="n">
-        <v>3315.729651154638</v>
+        <v>3315.729651154637</v>
       </c>
       <c r="W20" t="n">
-        <v>3013.562713352319</v>
+        <v>3013.562713352318</v>
       </c>
       <c r="X20" t="n">
         <v>2690.698672559034</v>
@@ -5825,31 +5825,31 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H21" t="n">
-        <v>92.00963489635761</v>
+        <v>92.00963489635758</v>
       </c>
       <c r="I21" t="n">
-        <v>80.36834824685809</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J21" t="n">
-        <v>287.3258890201546</v>
+        <v>166.3482961235084</v>
       </c>
       <c r="K21" t="n">
-        <v>512.4341393508837</v>
+        <v>391.4565464542376</v>
       </c>
       <c r="L21" t="n">
-        <v>861.4425031592348</v>
+        <v>740.4649102625887</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.075670234813</v>
+        <v>1167.098077338167</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.40919267202</v>
+        <v>1619.431599775374</v>
       </c>
       <c r="O21" t="n">
-        <v>2131.986199976763</v>
+        <v>2011.008607080116</v>
       </c>
       <c r="P21" t="n">
-        <v>2426.928204134315</v>
+        <v>2305.950611237669</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.169926664026</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2502.26518513484</v>
+        <v>754.0429662777817</v>
       </c>
       <c r="C22" t="n">
-        <v>2383.930719674728</v>
+        <v>635.7085008176699</v>
       </c>
       <c r="D22" t="n">
-        <v>2284.415797730187</v>
+        <v>536.1935788731294</v>
       </c>
       <c r="E22" t="n">
-        <v>2187.104421615589</v>
+        <v>438.8822027585314</v>
       </c>
       <c r="F22" t="n">
-        <v>2090.816191585474</v>
+        <v>342.5939727284162</v>
       </c>
       <c r="G22" t="n">
-        <v>1973.645382165808</v>
+        <v>225.4231633087499</v>
       </c>
       <c r="H22" t="n">
-        <v>1877.410303065893</v>
+        <v>129.1880842088351</v>
       </c>
       <c r="I22" t="n">
-        <v>1828.590567103917</v>
+        <v>80.36834824685806</v>
       </c>
       <c r="J22" t="n">
-        <v>1918.478890625451</v>
+        <v>170.256671768393</v>
       </c>
       <c r="K22" t="n">
-        <v>2164.125200648081</v>
+        <v>415.9029817910227</v>
       </c>
       <c r="L22" t="n">
-        <v>2520.124885766768</v>
+        <v>771.9026669097095</v>
       </c>
       <c r="M22" t="n">
-        <v>2903.169802166679</v>
+        <v>1154.947583309621</v>
       </c>
       <c r="N22" t="n">
-        <v>3283.720635169677</v>
+        <v>1535.498416312619</v>
       </c>
       <c r="O22" t="n">
-        <v>3622.99059859052</v>
+        <v>1874.768379733461</v>
       </c>
       <c r="P22" t="n">
-        <v>3896.931853414254</v>
+        <v>2148.709634557195</v>
       </c>
       <c r="Q22" t="n">
-        <v>4018.417412342904</v>
+        <v>2270.195193485846</v>
       </c>
       <c r="R22" t="n">
-        <v>3976.05514496146</v>
+        <v>2227.832926104402</v>
       </c>
       <c r="S22" t="n">
-        <v>3833.756467050629</v>
+        <v>2085.53424819357</v>
       </c>
       <c r="T22" t="n">
-        <v>3662.293801604088</v>
+        <v>1914.07158274703</v>
       </c>
       <c r="U22" t="n">
-        <v>3423.788850910499</v>
+        <v>1675.566632053441</v>
       </c>
       <c r="V22" t="n">
-        <v>3219.706080172407</v>
+        <v>1471.483861315349</v>
       </c>
       <c r="W22" t="n">
-        <v>2980.890627603241</v>
+        <v>1232.668408746183</v>
       </c>
       <c r="X22" t="n">
-        <v>2803.502794173019</v>
+        <v>1055.280575315961</v>
       </c>
       <c r="Y22" t="n">
-        <v>2633.311932497284</v>
+        <v>885.0897136402263</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2015.162935454691</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D23" t="n">
-        <v>1389.138154843119</v>
+        <v>1389.13815484312</v>
       </c>
       <c r="E23" t="n">
         <v>1053.95161971267</v>
       </c>
       <c r="F23" t="n">
-        <v>693.5674323908573</v>
+        <v>693.5674323908581</v>
       </c>
       <c r="G23" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H23" t="n">
         <v>80.36834824685809</v>
@@ -5992,37 +5992,37 @@
         <v>423.7293368380542</v>
       </c>
       <c r="K23" t="n">
-        <v>738.1792973843255</v>
+        <v>1059.083255829779</v>
       </c>
       <c r="L23" t="n">
-        <v>1165.184040867458</v>
+        <v>1486.087999312911</v>
       </c>
       <c r="M23" t="n">
-        <v>1671.978530442369</v>
+        <v>1992.882488887822</v>
       </c>
       <c r="N23" t="n">
-        <v>2191.58729307476</v>
+        <v>2512.491251520213</v>
       </c>
       <c r="O23" t="n">
-        <v>2770.413136545769</v>
+        <v>3088.993857635538</v>
       </c>
       <c r="P23" t="n">
-        <v>3461.871496720032</v>
+        <v>3461.871496720033</v>
       </c>
       <c r="Q23" t="n">
         <v>3903.906168958818</v>
       </c>
       <c r="R23" t="n">
-        <v>4018.417412342904</v>
+        <v>4018.417412342905</v>
       </c>
       <c r="S23" t="n">
-        <v>3955.188138713194</v>
+        <v>3955.188138713195</v>
       </c>
       <c r="T23" t="n">
-        <v>3799.132009287573</v>
+        <v>3799.132009287574</v>
       </c>
       <c r="U23" t="n">
-        <v>3596.190821030413</v>
+        <v>3596.190821030414</v>
       </c>
       <c r="V23" t="n">
         <v>3315.729651154638</v>
@@ -6031,10 +6031,10 @@
         <v>3013.562713352319</v>
       </c>
       <c r="X23" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559035</v>
       </c>
       <c r="Y23" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="24">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2502.26518513484</v>
+        <v>754.042966277781</v>
       </c>
       <c r="C25" t="n">
-        <v>2383.930719674728</v>
+        <v>635.7085008176692</v>
       </c>
       <c r="D25" t="n">
-        <v>2284.415797730187</v>
+        <v>536.1935788731287</v>
       </c>
       <c r="E25" t="n">
-        <v>2187.104421615589</v>
+        <v>438.8822027585308</v>
       </c>
       <c r="F25" t="n">
-        <v>2090.816191585474</v>
+        <v>342.5939727284156</v>
       </c>
       <c r="G25" t="n">
-        <v>1973.645382165808</v>
+        <v>225.4231633087492</v>
       </c>
       <c r="H25" t="n">
-        <v>1877.410303065893</v>
+        <v>129.1880842088344</v>
       </c>
       <c r="I25" t="n">
-        <v>1828.590567103917</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J25" t="n">
-        <v>1918.478890625451</v>
+        <v>170.2566717683931</v>
       </c>
       <c r="K25" t="n">
-        <v>2164.125200648081</v>
+        <v>415.9029817910227</v>
       </c>
       <c r="L25" t="n">
-        <v>2520.124885766768</v>
+        <v>771.9026669097095</v>
       </c>
       <c r="M25" t="n">
-        <v>2903.169802166679</v>
+        <v>1154.947583309621</v>
       </c>
       <c r="N25" t="n">
-        <v>3283.720635169677</v>
+        <v>1535.498416312619</v>
       </c>
       <c r="O25" t="n">
-        <v>3622.99059859052</v>
+        <v>1874.768379733461</v>
       </c>
       <c r="P25" t="n">
-        <v>3896.931853414254</v>
+        <v>2148.709634557195</v>
       </c>
       <c r="Q25" t="n">
-        <v>4018.417412342904</v>
+        <v>2270.195193485846</v>
       </c>
       <c r="R25" t="n">
-        <v>3976.05514496146</v>
+        <v>2227.832926104402</v>
       </c>
       <c r="S25" t="n">
-        <v>3833.756467050629</v>
+        <v>2085.53424819357</v>
       </c>
       <c r="T25" t="n">
-        <v>3662.293801604088</v>
+        <v>1914.071582747029</v>
       </c>
       <c r="U25" t="n">
-        <v>3423.788850910499</v>
+        <v>1675.56663205344</v>
       </c>
       <c r="V25" t="n">
-        <v>3219.706080172407</v>
+        <v>1471.483861315348</v>
       </c>
       <c r="W25" t="n">
-        <v>2980.890627603241</v>
+        <v>1232.668408746183</v>
       </c>
       <c r="X25" t="n">
-        <v>2803.502794173019</v>
+        <v>1055.280575315961</v>
       </c>
       <c r="Y25" t="n">
-        <v>2633.311932497284</v>
+        <v>885.0897136402256</v>
       </c>
     </row>
     <row r="26">
@@ -6223,7 +6223,7 @@
         <v>143.7918093188195</v>
       </c>
       <c r="I26" t="n">
-        <v>95.80529835927996</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="J26" t="n">
         <v>439.166286950476</v>
@@ -6232,22 +6232,22 @@
         <v>1074.5202059422</v>
       </c>
       <c r="L26" t="n">
-        <v>1915.009551830279</v>
+        <v>1661.54865157291</v>
       </c>
       <c r="M26" t="n">
-        <v>2421.804041405189</v>
+        <v>2168.343141147821</v>
       </c>
       <c r="N26" t="n">
-        <v>2941.412804037581</v>
+        <v>2687.951903780212</v>
       </c>
       <c r="O26" t="n">
         <v>3542.260642166862</v>
       </c>
       <c r="P26" t="n">
-        <v>4233.719002341125</v>
+        <v>4233.719002341126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4675.753674579911</v>
+        <v>4675.753674579912</v>
       </c>
       <c r="R26" t="n">
         <v>4790.264917963998</v>
@@ -6256,13 +6256,13 @@
         <v>4676.433926866493</v>
       </c>
       <c r="T26" t="n">
-        <v>4469.776079973076</v>
+        <v>4469.776079973077</v>
       </c>
       <c r="U26" t="n">
         <v>4216.233174248121</v>
       </c>
       <c r="V26" t="n">
-        <v>3885.170286904551</v>
+        <v>3885.17028690455</v>
       </c>
       <c r="W26" t="n">
         <v>3532.401631634436</v>
@@ -6302,28 +6302,28 @@
         <v>107.4465850087795</v>
       </c>
       <c r="I27" t="n">
-        <v>95.80529835927996</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="J27" t="n">
-        <v>181.7852462359303</v>
+        <v>302.7628391325757</v>
       </c>
       <c r="K27" t="n">
-        <v>406.8934965666595</v>
+        <v>527.8710894633048</v>
       </c>
       <c r="L27" t="n">
-        <v>755.9018603750105</v>
+        <v>876.8794532716558</v>
       </c>
       <c r="M27" t="n">
-        <v>1182.535027450589</v>
+        <v>1303.512620347234</v>
       </c>
       <c r="N27" t="n">
-        <v>1634.868549887796</v>
+        <v>1755.846142784442</v>
       </c>
       <c r="O27" t="n">
-        <v>2026.445557192538</v>
+        <v>2147.423150089184</v>
       </c>
       <c r="P27" t="n">
-        <v>2321.387561350091</v>
+        <v>2442.365154246736</v>
       </c>
       <c r="Q27" t="n">
         <v>2589.606876776448</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>976.855142097059</v>
+        <v>707.4212087246976</v>
       </c>
       <c r="C28" t="n">
-        <v>807.9189591691521</v>
+        <v>707.4212087246976</v>
       </c>
       <c r="D28" t="n">
-        <v>657.8023197568164</v>
+        <v>557.3045693123619</v>
       </c>
       <c r="E28" t="n">
-        <v>509.8892261744232</v>
+        <v>557.3045693123619</v>
       </c>
       <c r="F28" t="n">
-        <v>362.9992786765129</v>
+        <v>410.4146218144515</v>
       </c>
       <c r="G28" t="n">
-        <v>195.2267517890514</v>
+        <v>242.64209492699</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2267517890514</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="I28" t="n">
-        <v>95.80529835927996</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="J28" t="n">
         <v>136.0988785906289</v>
@@ -6408,28 +6408,28 @@
         <v>1888.87419727678</v>
       </c>
       <c r="R28" t="n">
-        <v>1795.910212427541</v>
+        <v>1888.87419727678</v>
       </c>
       <c r="S28" t="n">
-        <v>1603.009817048913</v>
+        <v>1695.973801898153</v>
       </c>
       <c r="T28" t="n">
-        <v>1603.009817048913</v>
+        <v>1473.909418983817</v>
       </c>
       <c r="U28" t="n">
-        <v>1313.903148887529</v>
+        <v>1473.909418983817</v>
       </c>
       <c r="V28" t="n">
-        <v>1266.27231213402</v>
+        <v>1219.22493077793</v>
       </c>
       <c r="W28" t="n">
-        <v>976.855142097059</v>
+        <v>929.8077607409693</v>
       </c>
       <c r="X28" t="n">
-        <v>976.855142097059</v>
+        <v>889.0696735549374</v>
       </c>
       <c r="Y28" t="n">
-        <v>976.855142097059</v>
+        <v>889.0696735549374</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2382.196701333422</v>
       </c>
       <c r="C29" t="n">
-        <v>2013.23418439301</v>
+        <v>2013.234184393011</v>
       </c>
       <c r="D29" t="n">
-        <v>1654.96848578626</v>
+        <v>1654.968485786261</v>
       </c>
       <c r="E29" t="n">
         <v>1269.180233188016</v>
       </c>
       <c r="F29" t="n">
-        <v>858.1943283984083</v>
+        <v>858.194328398409</v>
       </c>
       <c r="G29" t="n">
-        <v>442.9665157585077</v>
+        <v>442.9665157585081</v>
       </c>
       <c r="H29" t="n">
         <v>143.7918093188195</v>
       </c>
       <c r="I29" t="n">
-        <v>95.80529835927996</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="J29" t="n">
-        <v>271.760637930123</v>
+        <v>439.166286950476</v>
       </c>
       <c r="K29" t="n">
-        <v>907.1145569218475</v>
+        <v>1074.5202059422</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.603902809926</v>
+        <v>1501.524949425333</v>
       </c>
       <c r="M29" t="n">
-        <v>2254.398392384836</v>
+        <v>2008.319439000244</v>
       </c>
       <c r="N29" t="n">
-        <v>3206.980610185092</v>
+        <v>2687.951903780212</v>
       </c>
       <c r="O29" t="n">
-        <v>4061.289348571742</v>
+        <v>3542.260642166862</v>
       </c>
       <c r="P29" t="n">
-        <v>4434.166987656237</v>
+        <v>4233.719002341126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4675.753674579911</v>
+        <v>4675.753674579912</v>
       </c>
       <c r="R29" t="n">
         <v>4790.264917963998</v>
@@ -6493,22 +6493,22 @@
         <v>4676.433926866493</v>
       </c>
       <c r="T29" t="n">
-        <v>4469.776079973076</v>
+        <v>4469.776079973077</v>
       </c>
       <c r="U29" t="n">
-        <v>4216.23317424812</v>
+        <v>4216.233174248121</v>
       </c>
       <c r="V29" t="n">
-        <v>3885.170286904549</v>
+        <v>3885.17028690455</v>
       </c>
       <c r="W29" t="n">
-        <v>3532.401631634435</v>
+        <v>3532.401631634436</v>
       </c>
       <c r="X29" t="n">
-        <v>3158.935873373355</v>
+        <v>3158.935873373356</v>
       </c>
       <c r="Y29" t="n">
-        <v>2768.796541397543</v>
+        <v>2768.796541397544</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>107.4465850087795</v>
       </c>
       <c r="I30" t="n">
-        <v>95.80529835927996</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="J30" t="n">
         <v>302.7628391325757</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1123.691938664769</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="C31" t="n">
-        <v>954.7557557368622</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="D31" t="n">
-        <v>804.6391163245264</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="E31" t="n">
-        <v>656.7260227421333</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="F31" t="n">
-        <v>509.8360752442229</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="G31" t="n">
-        <v>342.0635483567614</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="H31" t="n">
-        <v>195.2267517890514</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="I31" t="n">
-        <v>95.80529835927996</v>
+        <v>95.80529835927997</v>
       </c>
       <c r="J31" t="n">
         <v>136.0988785906289</v>
@@ -6645,28 +6645,28 @@
         <v>1888.87419727678</v>
       </c>
       <c r="R31" t="n">
-        <v>1795.910212427541</v>
+        <v>1888.87419727678</v>
       </c>
       <c r="S31" t="n">
-        <v>1603.009817048913</v>
+        <v>1781.508602549635</v>
       </c>
       <c r="T31" t="n">
-        <v>1603.009817048913</v>
+        <v>1559.444219635299</v>
       </c>
       <c r="U31" t="n">
-        <v>1603.009817048913</v>
+        <v>1270.337551473915</v>
       </c>
       <c r="V31" t="n">
-        <v>1603.009817048913</v>
+        <v>1015.653063268028</v>
       </c>
       <c r="W31" t="n">
-        <v>1603.009817048913</v>
+        <v>726.2358932310672</v>
       </c>
       <c r="X31" t="n">
-        <v>1526.132982638539</v>
+        <v>498.2463423330498</v>
       </c>
       <c r="Y31" t="n">
-        <v>1305.340403495009</v>
+        <v>277.4537631895197</v>
       </c>
     </row>
     <row r="32">
@@ -6682,67 +6682,67 @@
         <v>1999.346996350409</v>
       </c>
       <c r="D32" t="n">
-        <v>1643.283473193779</v>
+        <v>1643.28347319378</v>
       </c>
       <c r="E32" t="n">
-        <v>1259.697396045656</v>
+        <v>1259.697396045657</v>
       </c>
       <c r="F32" t="n">
-        <v>850.9136667061703</v>
+        <v>850.9136667061707</v>
       </c>
       <c r="G32" t="n">
-        <v>437.8880295163916</v>
+        <v>437.8880295163913</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9154985268243</v>
+        <v>140.9154985268241</v>
       </c>
       <c r="I32" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="J32" t="n">
         <v>438.4921516086022</v>
       </c>
       <c r="K32" t="n">
-        <v>752.9421121548735</v>
+        <v>1073.846070600327</v>
       </c>
       <c r="L32" t="n">
-        <v>1179.946855638006</v>
+        <v>1559.815665771429</v>
       </c>
       <c r="M32" t="n">
-        <v>2131.759743370821</v>
+        <v>2511.628553504244</v>
       </c>
       <c r="N32" t="n">
-        <v>3084.341961171076</v>
+        <v>3031.237316136635</v>
       </c>
       <c r="O32" t="n">
-        <v>3561.658520107609</v>
+        <v>3508.553875073168</v>
       </c>
       <c r="P32" t="n">
-        <v>4200.012235247432</v>
+        <v>4200.012235247431</v>
       </c>
       <c r="Q32" t="n">
-        <v>4642.046907486218</v>
+        <v>4642.046907486217</v>
       </c>
       <c r="R32" t="n">
         <v>4756.558150870304</v>
       </c>
       <c r="S32" t="n">
-        <v>4644.929335222921</v>
+        <v>4644.92933522292</v>
       </c>
       <c r="T32" t="n">
-        <v>4440.473663779626</v>
+        <v>4440.473663779625</v>
       </c>
       <c r="U32" t="n">
-        <v>4189.13293350479</v>
+        <v>4189.132933504789</v>
       </c>
       <c r="V32" t="n">
-        <v>3860.272221611341</v>
+        <v>3860.27222161134</v>
       </c>
       <c r="W32" t="n">
-        <v>3509.705741791348</v>
+        <v>3509.705741791347</v>
       </c>
       <c r="X32" t="n">
-        <v>3138.44215898039</v>
+        <v>3138.442158980389</v>
       </c>
       <c r="Y32" t="n">
         <v>2750.505002454699</v>
@@ -6776,28 +6776,28 @@
         <v>106.7724496669056</v>
       </c>
       <c r="I33" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="J33" t="n">
-        <v>181.1111108940565</v>
+        <v>302.0887037907019</v>
       </c>
       <c r="K33" t="n">
-        <v>406.2193612247856</v>
+        <v>527.196954121431</v>
       </c>
       <c r="L33" t="n">
-        <v>755.2277250331367</v>
+        <v>876.205317929782</v>
       </c>
       <c r="M33" t="n">
-        <v>1181.860892108715</v>
+        <v>1302.838485005361</v>
       </c>
       <c r="N33" t="n">
-        <v>1634.194414545922</v>
+        <v>1755.172007442568</v>
       </c>
       <c r="O33" t="n">
-        <v>2025.771421850665</v>
+        <v>2146.74901474731</v>
       </c>
       <c r="P33" t="n">
-        <v>2320.713426008217</v>
+        <v>2441.691018904863</v>
       </c>
       <c r="Q33" t="n">
         <v>2588.932741434574</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.1788031647118</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="C34" t="n">
-        <v>235.1788031647118</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="D34" t="n">
-        <v>235.1788031647118</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="E34" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="F34" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="G34" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="H34" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="I34" t="n">
-        <v>95.1311630174061</v>
+        <v>95.13116301740607</v>
       </c>
       <c r="J34" t="n">
-        <v>137.583095407419</v>
+        <v>137.5830954074191</v>
       </c>
       <c r="K34" t="n">
-        <v>335.7930142985266</v>
+        <v>335.7930142985268</v>
       </c>
       <c r="L34" t="n">
-        <v>644.3563082856913</v>
+        <v>644.3563082856916</v>
       </c>
       <c r="M34" t="n">
-        <v>979.9648335540803</v>
+        <v>979.9648335540808</v>
       </c>
       <c r="N34" t="n">
-        <v>1313.079275425556</v>
+        <v>1313.079275425557</v>
       </c>
       <c r="O34" t="n">
         <v>1604.912847714877</v>
@@ -6879,31 +6879,31 @@
         <v>1831.417711407089</v>
       </c>
       <c r="Q34" t="n">
-        <v>1905.466879204217</v>
+        <v>1905.466879204218</v>
       </c>
       <c r="R34" t="n">
-        <v>1905.466879204217</v>
+        <v>1814.7050698051</v>
       </c>
       <c r="S34" t="n">
-        <v>1905.466879204217</v>
+        <v>1624.006849876595</v>
       </c>
       <c r="T34" t="n">
-        <v>1685.604671740003</v>
+        <v>1404.144642412381</v>
       </c>
       <c r="U34" t="n">
-        <v>1398.70017902874</v>
+        <v>1117.240149701117</v>
       </c>
       <c r="V34" t="n">
-        <v>1146.217866272974</v>
+        <v>1006.170226125668</v>
       </c>
       <c r="W34" t="n">
-        <v>859.0028716861347</v>
+        <v>718.9552315388288</v>
       </c>
       <c r="X34" t="n">
-        <v>633.2154962382388</v>
+        <v>493.167856090933</v>
       </c>
       <c r="Y34" t="n">
-        <v>414.6250925448301</v>
+        <v>274.5774523975243</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2015.162935454691</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D35" t="n">
         <v>1389.138154843119</v>
@@ -6925,16 +6925,16 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F35" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908579</v>
       </c>
       <c r="G35" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J35" t="n">
         <v>423.7293368380542</v>
@@ -6943,22 +6943,22 @@
         <v>738.1792973843255</v>
       </c>
       <c r="L35" t="n">
-        <v>1578.668643272404</v>
+        <v>1165.184040867458</v>
       </c>
       <c r="M35" t="n">
-        <v>2085.463132847315</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N35" t="n">
-        <v>2605.071895479706</v>
+        <v>2191.58729307476</v>
       </c>
       <c r="O35" t="n">
-        <v>3299.185698388842</v>
+        <v>2770.413136545769</v>
       </c>
       <c r="P35" t="n">
-        <v>3672.063337473337</v>
+        <v>3461.871496720032</v>
       </c>
       <c r="Q35" t="n">
-        <v>3903.906168958817</v>
+        <v>3903.906168958818</v>
       </c>
       <c r="R35" t="n">
         <v>4018.417412342904</v>
@@ -6973,16 +6973,16 @@
         <v>3596.190821030413</v>
       </c>
       <c r="V35" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W35" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X35" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559035</v>
       </c>
       <c r="Y35" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H36" t="n">
-        <v>92.0096348963576</v>
+        <v>92.00963489635761</v>
       </c>
       <c r="I36" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J36" t="n">
         <v>287.3258890201546</v>
@@ -7092,7 +7092,7 @@
         <v>129.1880842088344</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J37" t="n">
         <v>170.2566717683931</v>
@@ -7125,7 +7125,7 @@
         <v>2085.53424819357</v>
       </c>
       <c r="T37" t="n">
-        <v>1914.07158274703</v>
+        <v>1914.071582747029</v>
       </c>
       <c r="U37" t="n">
         <v>1675.56663205344</v>
@@ -7153,7 +7153,7 @@
         <v>2015.162935454691</v>
       </c>
       <c r="C38" t="n">
-        <v>1696.802135982074</v>
+        <v>1696.802135982075</v>
       </c>
       <c r="D38" t="n">
         <v>1389.138154843119</v>
@@ -7162,40 +7162,40 @@
         <v>1053.95161971267</v>
       </c>
       <c r="F38" t="n">
-        <v>693.5674323908574</v>
+        <v>693.5674323908579</v>
       </c>
       <c r="G38" t="n">
-        <v>328.9413372187516</v>
+        <v>328.9413372187515</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J38" t="n">
         <v>423.7293368380542</v>
       </c>
       <c r="K38" t="n">
-        <v>1059.083255829779</v>
+        <v>738.1792973843255</v>
       </c>
       <c r="L38" t="n">
-        <v>1486.087999312911</v>
+        <v>1165.184040867458</v>
       </c>
       <c r="M38" t="n">
-        <v>1992.882488887822</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N38" t="n">
-        <v>2512.491251520213</v>
+        <v>2191.58729307476</v>
       </c>
       <c r="O38" t="n">
-        <v>2989.807810456745</v>
+        <v>2770.413136545769</v>
       </c>
       <c r="P38" t="n">
         <v>3461.871496720032</v>
       </c>
       <c r="Q38" t="n">
-        <v>3903.906168958817</v>
+        <v>3903.906168958818</v>
       </c>
       <c r="R38" t="n">
         <v>4018.417412342904</v>
@@ -7204,7 +7204,7 @@
         <v>3955.188138713194</v>
       </c>
       <c r="T38" t="n">
-        <v>3799.132009287574</v>
+        <v>3799.132009287573</v>
       </c>
       <c r="U38" t="n">
         <v>3596.190821030413</v>
@@ -7216,10 +7216,10 @@
         <v>3013.562713352319</v>
       </c>
       <c r="X38" t="n">
-        <v>2690.698672559034</v>
+        <v>2690.698672559035</v>
       </c>
       <c r="Y38" t="n">
-        <v>2351.161058051017</v>
+        <v>2351.161058051018</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H39" t="n">
-        <v>92.0096348963576</v>
+        <v>92.00963489635761</v>
       </c>
       <c r="I39" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J39" t="n">
-        <v>166.3482961235084</v>
+        <v>287.3258890201546</v>
       </c>
       <c r="K39" t="n">
-        <v>391.4565464542376</v>
+        <v>512.4341393508837</v>
       </c>
       <c r="L39" t="n">
-        <v>740.4649102625887</v>
+        <v>861.4425031592348</v>
       </c>
       <c r="M39" t="n">
-        <v>1167.098077338167</v>
+        <v>1288.075670234813</v>
       </c>
       <c r="N39" t="n">
-        <v>1619.431599775374</v>
+        <v>1740.40919267202</v>
       </c>
       <c r="O39" t="n">
         <v>2131.986199976763</v>
@@ -7323,22 +7323,22 @@
         <v>342.5939727284156</v>
       </c>
       <c r="G40" t="n">
-        <v>225.4231633087492</v>
+        <v>225.4231633087493</v>
       </c>
       <c r="H40" t="n">
         <v>129.1880842088344</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J40" t="n">
-        <v>170.2566717683931</v>
+        <v>170.256671768393</v>
       </c>
       <c r="K40" t="n">
         <v>415.9029817910227</v>
       </c>
       <c r="L40" t="n">
-        <v>771.9026669097095</v>
+        <v>771.9026669097096</v>
       </c>
       <c r="M40" t="n">
         <v>1154.947583309621</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2015.16293545469</v>
+        <v>2015.162935454691</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.802135982073</v>
+        <v>1696.802135982074</v>
       </c>
       <c r="D41" t="n">
-        <v>1389.138154843118</v>
+        <v>1389.138154843119</v>
       </c>
       <c r="E41" t="n">
-        <v>1053.951619712669</v>
+        <v>1053.95161971267</v>
       </c>
       <c r="F41" t="n">
-        <v>693.5674323908568</v>
+        <v>693.5674323908574</v>
       </c>
       <c r="G41" t="n">
-        <v>328.941337218751</v>
+        <v>328.9413372187516</v>
       </c>
       <c r="H41" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="I41" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J41" t="n">
-        <v>256.3236878177011</v>
+        <v>423.7293368380542</v>
       </c>
       <c r="K41" t="n">
-        <v>891.6776068094255</v>
+        <v>839.6885819188019</v>
       </c>
       <c r="L41" t="n">
-        <v>1318.682350292558</v>
+        <v>1266.693325401935</v>
       </c>
       <c r="M41" t="n">
-        <v>1825.476839867469</v>
+        <v>1773.487814976845</v>
       </c>
       <c r="N41" t="n">
-        <v>2345.08560249986</v>
+        <v>2293.096577609237</v>
       </c>
       <c r="O41" t="n">
-        <v>3199.39434088651</v>
+        <v>2770.413136545769</v>
       </c>
       <c r="P41" t="n">
-        <v>3737.12259314759</v>
+        <v>3461.871496720032</v>
       </c>
       <c r="Q41" t="n">
-        <v>3968.96542463307</v>
+        <v>3903.906168958818</v>
       </c>
       <c r="R41" t="n">
         <v>4018.417412342904</v>
@@ -7441,22 +7441,22 @@
         <v>3955.188138713194</v>
       </c>
       <c r="T41" t="n">
-        <v>3799.132009287573</v>
+        <v>3799.132009287574</v>
       </c>
       <c r="U41" t="n">
-        <v>3596.190821030412</v>
+        <v>3596.190821030413</v>
       </c>
       <c r="V41" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W41" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X41" t="n">
-        <v>2690.698672559033</v>
+        <v>2690.698672559034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2351.161058051016</v>
+        <v>2351.161058051017</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H42" t="n">
-        <v>92.0096348963576</v>
+        <v>92.00963489635761</v>
       </c>
       <c r="I42" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J42" t="n">
-        <v>287.3258890201546</v>
+        <v>247.4593301613736</v>
       </c>
       <c r="K42" t="n">
-        <v>512.4341393508837</v>
+        <v>472.5675804921027</v>
       </c>
       <c r="L42" t="n">
-        <v>861.4425031592348</v>
+        <v>821.5759443004538</v>
       </c>
       <c r="M42" t="n">
-        <v>1288.075670234813</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.40919267202</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O42" t="n">
-        <v>2131.986199976763</v>
+        <v>2092.119641117982</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.928204134315</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q42" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R42" t="n">
         <v>2574.169926664026</v>
@@ -7566,7 +7566,7 @@
         <v>129.1880842088344</v>
       </c>
       <c r="I43" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J43" t="n">
         <v>170.2566717683931</v>
@@ -7642,25 +7642,25 @@
         <v>328.9413372187516</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J44" t="n">
         <v>423.7293368380542</v>
       </c>
       <c r="K44" t="n">
-        <v>839.6885819188019</v>
+        <v>738.1792973843255</v>
       </c>
       <c r="L44" t="n">
-        <v>1266.693325401935</v>
+        <v>1165.184040867458</v>
       </c>
       <c r="M44" t="n">
-        <v>1773.487814976845</v>
+        <v>1671.978530442369</v>
       </c>
       <c r="N44" t="n">
-        <v>2293.096577609237</v>
+        <v>2191.58729307476</v>
       </c>
       <c r="O44" t="n">
         <v>2770.413136545769</v>
@@ -7669,25 +7669,25 @@
         <v>3461.871496720032</v>
       </c>
       <c r="Q44" t="n">
-        <v>3903.906168958817</v>
+        <v>3903.906168958818</v>
       </c>
       <c r="R44" t="n">
         <v>4018.417412342904</v>
       </c>
       <c r="S44" t="n">
-        <v>3955.188138713194</v>
+        <v>3955.188138713195</v>
       </c>
       <c r="T44" t="n">
-        <v>3799.132009287573</v>
+        <v>3799.132009287574</v>
       </c>
       <c r="U44" t="n">
-        <v>3596.190821030412</v>
+        <v>3596.190821030413</v>
       </c>
       <c r="V44" t="n">
-        <v>3315.729651154637</v>
+        <v>3315.729651154638</v>
       </c>
       <c r="W44" t="n">
-        <v>3013.562713352318</v>
+        <v>3013.562713352319</v>
       </c>
       <c r="X44" t="n">
         <v>2690.698672559034</v>
@@ -7721,34 +7721,34 @@
         <v>183.3143539065689</v>
       </c>
       <c r="H45" t="n">
-        <v>92.0096348963576</v>
+        <v>92.00963489635761</v>
       </c>
       <c r="I45" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J45" t="n">
-        <v>166.3482961235084</v>
+        <v>247.4593301613736</v>
       </c>
       <c r="K45" t="n">
-        <v>391.4565464542376</v>
+        <v>472.5675804921027</v>
       </c>
       <c r="L45" t="n">
-        <v>740.4649102625887</v>
+        <v>821.5759443004538</v>
       </c>
       <c r="M45" t="n">
-        <v>1167.098077338167</v>
+        <v>1248.209111376032</v>
       </c>
       <c r="N45" t="n">
-        <v>1619.431599775374</v>
+        <v>1700.542633813239</v>
       </c>
       <c r="O45" t="n">
-        <v>2011.008607080116</v>
+        <v>2092.119641117982</v>
       </c>
       <c r="P45" t="n">
-        <v>2305.950611237669</v>
+        <v>2387.061645275534</v>
       </c>
       <c r="Q45" t="n">
-        <v>2574.169926664026</v>
+        <v>2534.303367805245</v>
       </c>
       <c r="R45" t="n">
         <v>2574.169926664026</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.0429662777813</v>
+        <v>754.042966277781</v>
       </c>
       <c r="C46" t="n">
-        <v>635.7085008176695</v>
+        <v>635.7085008176692</v>
       </c>
       <c r="D46" t="n">
-        <v>536.1935788731289</v>
+        <v>536.1935788731287</v>
       </c>
       <c r="E46" t="n">
         <v>438.8822027585308</v>
@@ -7803,7 +7803,7 @@
         <v>129.1880842088344</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36834824685808</v>
+        <v>80.36834824685809</v>
       </c>
       <c r="J46" t="n">
         <v>170.2566717683931</v>
@@ -7851,7 +7851,7 @@
         <v>1055.280575315961</v>
       </c>
       <c r="Y46" t="n">
-        <v>885.0897136402258</v>
+        <v>885.0897136402256</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>242.6424607116987</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O2" t="n">
-        <v>236.69643713343</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P2" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>137.9399377950766</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,7 +8142,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M4" t="n">
         <v>145.8018296893165</v>
@@ -8151,7 +8151,7 @@
         <v>134.5615902069446</v>
       </c>
       <c r="O4" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8218,19 +8218,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2891093383024</v>
+        <v>236.0112893083342</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
         <v>238.109041496981</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>149.0100796637298</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>137.9399377950766</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8385,10 +8385,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O7" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8458,19 +8458,19 @@
         <v>235.3925885601156</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>250.4508600602684</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>152.5258840646401</v>
+        <v>153.144176489494</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.2388248701553</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8546,7 +8546,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>149.2771449294653</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6312460149794</v>
+        <v>102.5346308429046</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>122.1995887844911</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.1995887844909</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>5.252418438814885</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>102.5346308429055</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>312.5029171031275</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>122.1995887844911</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>122.1995887844912</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>102.5346308429055</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>168.2510507158867</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>122.1995887844911</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.1995887844909</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>5.252418438814885</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>102.5346308429056</v>
+        <v>102.5346308429047</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>122.199588784491</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>122.1995887844909</v>
       </c>
       <c r="R21" t="n">
         <v>5.252418438814885</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,10 +9652,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>102.5346308429056</v>
+        <v>100.1879264432249</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>161.640103179371</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>124.7790698916651</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>122.1995887844902</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>122.1995887844904</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>5.252418438814885</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>161.6401031793708</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.842278220397418</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>59.56045625047494</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>268.1576525811393</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>122.1995887844903</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>122.1995887844904</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>5.252418438814885</v>
@@ -10591,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>218.9871151238424</v>
+        <v>102.5346308429056</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>102.5346308429056</v>
       </c>
       <c r="P38" t="n">
-        <v>100.1879264432239</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>122.199588784491</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>122.1995887844911</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>102.5346308429055</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>166.5157708854391</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.199588784491</v>
+        <v>81.93033741198497</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>5.252418438814885</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>102.5346308429055</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>102.5346308429056</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>81.93033741198497</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.1995887844909</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>5.252418438814885</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.3684286020329</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.42723889547375</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.03434500074682</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.8437390851924</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2156014797706</v>
       </c>
       <c r="V28" t="n">
-        <v>204.9831149378537</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3789490748655</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0948016185868</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>145.3684286020329</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.42723889547375</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.03434500074682</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>84.67945264496748</v>
       </c>
       <c r="T31" t="n">
-        <v>219.8437390851924</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2156014797706</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>149.6015893227663</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0666674030077</v>
+        <v>165.0666674030076</v>
       </c>
       <c r="D34" t="n">
-        <v>146.4353193225922</v>
+        <v>146.4353193225921</v>
       </c>
       <c r="E34" t="n">
-        <v>5.606645205116422</v>
+        <v>144.2538089509489</v>
       </c>
       <c r="F34" t="n">
-        <v>143.2408943273111</v>
+        <v>143.240894327311</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9146479229667</v>
+        <v>163.9146479229666</v>
       </c>
       <c r="H34" t="n">
-        <v>143.1882749064127</v>
+        <v>143.1882749064126</v>
       </c>
       <c r="I34" t="n">
-        <v>96.24708519985359</v>
+        <v>96.2470851998535</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.85419130512666</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>188.7912377292206</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>139.9982652885129</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>668677.1701505141</v>
+        <v>668677.170150514</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>668677.1701505141</v>
+        <v>668677.170150514</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>668677.1701505141</v>
+        <v>668677.1701505139</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>668677.1701505141</v>
+        <v>668677.170150514</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666332.3688707014</v>
+        <v>666332.3688707015</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>799861.7300691409</v>
       </c>
       <c r="C2" t="n">
-        <v>799861.7300691411</v>
+        <v>799861.730069141</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="E2" t="n">
-        <v>800515.7256176771</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="F2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="G2" t="n">
         <v>800515.7256176765</v>
       </c>
       <c r="H2" t="n">
-        <v>800515.7256176766</v>
+        <v>800515.725617678</v>
       </c>
       <c r="I2" t="n">
+        <v>800515.7256176781</v>
+      </c>
+      <c r="J2" t="n">
+        <v>772568.6008434499</v>
+      </c>
+      <c r="K2" t="n">
+        <v>772568.6008434499</v>
+      </c>
+      <c r="L2" t="n">
+        <v>773784.8534759517</v>
+      </c>
+      <c r="M2" t="n">
         <v>800515.7256176771</v>
       </c>
-      <c r="J2" t="n">
-        <v>772568.6008434498</v>
-      </c>
-      <c r="K2" t="n">
-        <v>772568.6008434498</v>
-      </c>
-      <c r="L2" t="n">
-        <v>773784.8534759518</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.7256176769</v>
-      </c>
       <c r="N2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="O2" t="n">
-        <v>800515.7256176781</v>
+        <v>800515.725617677</v>
       </c>
       <c r="P2" t="n">
-        <v>800515.725617678</v>
+        <v>800515.7256176771</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>52286.3933022257</v>
+        <v>52286.39330222568</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1744.122956496124</v>
+        <v>1744.122956496188</v>
       </c>
       <c r="M3" t="n">
         <v>238883.4509336556</v>
@@ -26438,28 +26438,28 @@
         <v>83576.52850010822</v>
       </c>
       <c r="I4" t="n">
+        <v>83576.5285001083</v>
+      </c>
+      <c r="J4" t="n">
+        <v>52927.39023330886</v>
+      </c>
+      <c r="K4" t="n">
+        <v>52927.39023330885</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54263.36524810281</v>
+      </c>
+      <c r="M4" t="n">
+        <v>83576.52850010824</v>
+      </c>
+      <c r="N4" t="n">
         <v>83576.52850010822</v>
       </c>
-      <c r="J4" t="n">
-        <v>52927.39023330884</v>
-      </c>
-      <c r="K4" t="n">
-        <v>52927.39023330886</v>
-      </c>
-      <c r="L4" t="n">
-        <v>54263.36524810275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>83576.52850010825</v>
-      </c>
-      <c r="N4" t="n">
-        <v>83576.52850010825</v>
-      </c>
       <c r="O4" t="n">
-        <v>83576.52850010825</v>
+        <v>83576.52850010822</v>
       </c>
       <c r="P4" t="n">
-        <v>83576.52850010824</v>
+        <v>83576.52850010822</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>88214.50517266034</v>
+        <v>88214.50517266031</v>
       </c>
       <c r="F5" t="n">
-        <v>88214.50517266034</v>
+        <v>88214.50517266031</v>
       </c>
       <c r="G5" t="n">
-        <v>88214.50517266034</v>
+        <v>88214.50517266031</v>
       </c>
       <c r="H5" t="n">
-        <v>88214.50517266034</v>
+        <v>88214.50517266031</v>
       </c>
       <c r="I5" t="n">
         <v>88214.50517266034</v>
@@ -26521,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>349040.3711439947</v>
+        <v>349023.6020273656</v>
       </c>
       <c r="C6" t="n">
-        <v>351344.6922210944</v>
+        <v>351327.9231044652</v>
       </c>
       <c r="D6" t="n">
-        <v>349620.5216445119</v>
+        <v>349620.5216445118</v>
       </c>
       <c r="E6" t="n">
-        <v>-551527.2748772877</v>
+        <v>-551527.2748772884</v>
       </c>
       <c r="F6" t="n">
         <v>628724.6919449079</v>
@@ -26539,31 +26539,31 @@
         <v>628724.6919449079</v>
       </c>
       <c r="H6" t="n">
-        <v>628724.6919449081</v>
+        <v>628724.6919449095</v>
       </c>
       <c r="I6" t="n">
+        <v>628724.6919449094</v>
+      </c>
+      <c r="J6" t="n">
+        <v>570903.1325348276</v>
+      </c>
+      <c r="K6" t="n">
+        <v>623189.5258370533</v>
+      </c>
+      <c r="L6" t="n">
+        <v>621685.9259819878</v>
+      </c>
+      <c r="M6" t="n">
+        <v>389841.2410112529</v>
+      </c>
+      <c r="N6" t="n">
+        <v>628724.6919449079</v>
+      </c>
+      <c r="O6" t="n">
+        <v>628724.6919449084</v>
+      </c>
+      <c r="P6" t="n">
         <v>628724.6919449086</v>
-      </c>
-      <c r="J6" t="n">
-        <v>571619.7254777562</v>
-      </c>
-      <c r="K6" t="n">
-        <v>623906.118779982</v>
-      </c>
-      <c r="L6" t="n">
-        <v>622371.3329599811</v>
-      </c>
-      <c r="M6" t="n">
-        <v>389841.2410112526</v>
-      </c>
-      <c r="N6" t="n">
-        <v>628724.6919449078</v>
-      </c>
-      <c r="O6" t="n">
-        <v>628724.6919449095</v>
-      </c>
-      <c r="P6" t="n">
-        <v>628724.6919449094</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="M2" t="n">
         <v>50.0957002931172</v>
@@ -26813,10 +26813,10 @@
         <v>1004.604353085726</v>
       </c>
       <c r="J4" t="n">
-        <v>1197.566229490999</v>
+        <v>1197.566229491</v>
       </c>
       <c r="K4" t="n">
-        <v>1197.566229490999</v>
+        <v>1197.566229491</v>
       </c>
       <c r="L4" t="n">
         <v>1189.139537717576</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="M2" t="n">
-        <v>47.91554659749705</v>
+        <v>47.91554659749696</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>989.301615570591</v>
+        <v>989.3016155705907</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>199.8379221469849</v>
+        <v>199.8379221469847</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>804.7664309387408</v>
+        <v>804.766430938741</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>989.301615570591</v>
+        <v>989.3016155705907</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>3.114653472833368</v>
       </c>
       <c r="R2" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27460,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>165.8324532466043</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>152.3352506923594</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>246.385153397878</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.8066500355929</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>163.9118407444349</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,19 +27590,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>5.892868265313084</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.114653472833368</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27706,19 +27706,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>105.359398494785</v>
       </c>
       <c r="I6" t="n">
         <v>82.52058710970364</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>93.2817884109317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27757,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>246.385153397878</v>
       </c>
       <c r="X6" t="n">
-        <v>199.7165641141781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>160.3707753569164</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>141.7394272765009</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5579169048577</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.82706289750146</v>
       </c>
       <c r="R7" t="n">
-        <v>171.2369702878701</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>391.5733082265764</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>211.1812058019216</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>324.2643064813487</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>370.9352011409185</v>
       </c>
     </row>
     <row r="9">
@@ -27937,16 +27937,16 @@
         <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>134.7130056875657</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>142.3423429402659</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>124.6114572861376</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27991,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>217.4978496342902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.9423968196003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28034,10 +28034,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>70.85930573655934</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>207.8274428838704</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I11" t="n">
         <v>47.50664584994414</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y11" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="J13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="K13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="L13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="M13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="N13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="O13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="P13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="R13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="S13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I14" t="n">
         <v>47.50664584994414</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y14" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="J16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="K16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="L16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="M16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="N16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="O16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="P16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="R16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="S16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y16" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I17" t="n">
         <v>47.50664584994414</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y17" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="J19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="K19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="L19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="M19" t="n">
-        <v>50.09570029311703</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="N19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="O19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311715</v>
       </c>
       <c r="P19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="R19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="S19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I20" t="n">
         <v>47.50664584994414</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="J22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="K22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="L22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="M22" t="n">
-        <v>50.09570029311703</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="N22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="O22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="P22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="R22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="S22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y22" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I23" t="n">
         <v>47.50664584994414</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y23" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="C25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="D25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="E25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="F25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="G25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="H25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="I25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="J25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="K25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="L25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="M25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="N25" t="n">
-        <v>50.09570029311749</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="O25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="P25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.0957002931172</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="R25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="S25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="T25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="U25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="V25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="W25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="X25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.09570029311719</v>
+        <v>50.09570029311721</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="C32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="D32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="E32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="F32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="G32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="H32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="I32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="U32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="V32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="W32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="X32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="C34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="D34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="E34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="F34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="G34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="H34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="I34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="J34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="K34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="L34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="M34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="N34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="O34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="P34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="R34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="S34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="T34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="U34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="V34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="W34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="X34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.180153695620155</v>
+        <v>2.180153695620235</v>
       </c>
     </row>
     <row r="35">
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,7 +34862,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M4" t="n">
         <v>6.876045741711437</v>
@@ -34871,7 +34871,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O4" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>6.876045741711437</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="O6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,10 +35105,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O7" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="P8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,11 +35254,11 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="L9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>15.30273751513505</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052485</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2574687889908</v>
+        <v>420.160853616916</v>
       </c>
       <c r="L11" t="n">
         <v>431.317922710235</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>86.84843219863674</v>
+        <v>209.0480209831278</v>
       </c>
       <c r="K12" t="n">
         <v>227.3820710411405</v>
@@ -35509,7 +35509,7 @@
         <v>297.92121632076</v>
       </c>
       <c r="Q12" t="n">
-        <v>270.928601440765</v>
+        <v>148.7290126562741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K13" t="n">
-        <v>248.1275858814441</v>
+        <v>248.1275858814442</v>
       </c>
       <c r="L13" t="n">
-        <v>359.5956415340271</v>
+        <v>359.5956415340272</v>
       </c>
       <c r="M13" t="n">
         <v>386.9140569696073</v>
@@ -35649,10 +35649,10 @@
         <v>346.8292814052485</v>
       </c>
       <c r="K14" t="n">
-        <v>420.1608536169169</v>
+        <v>641.7716353451762</v>
       </c>
       <c r="L14" t="n">
-        <v>431.317922710235</v>
+        <v>743.8208398133625</v>
       </c>
       <c r="M14" t="n">
         <v>511.9136258332429</v>
@@ -35664,10 +35664,10 @@
         <v>482.1379383197295</v>
       </c>
       <c r="P14" t="n">
-        <v>698.4427880548112</v>
+        <v>376.6440798833285</v>
       </c>
       <c r="Q14" t="n">
-        <v>446.4996689280662</v>
+        <v>234.1846782681615</v>
       </c>
       <c r="R14" t="n">
         <v>115.6679226101883</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>86.84843219863674</v>
+        <v>209.0480209831278</v>
       </c>
       <c r="K15" t="n">
         <v>227.3820710411405</v>
@@ -35737,7 +35737,7 @@
         <v>430.9425930056348</v>
       </c>
       <c r="N15" t="n">
-        <v>579.102136700862</v>
+        <v>456.9025479163708</v>
       </c>
       <c r="O15" t="n">
         <v>395.5323306108507</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K16" t="n">
         <v>248.1275858814441</v>
@@ -35816,7 +35816,7 @@
         <v>386.9140569696073</v>
       </c>
       <c r="N16" t="n">
-        <v>384.3947808111092</v>
+        <v>384.3947808111093</v>
       </c>
       <c r="O16" t="n">
         <v>342.6969327483256</v>
@@ -35886,7 +35886,7 @@
         <v>346.8292814052485</v>
       </c>
       <c r="K17" t="n">
-        <v>420.1608536169169</v>
+        <v>317.6262227740114</v>
       </c>
       <c r="L17" t="n">
         <v>431.317922710235</v>
@@ -35898,7 +35898,7 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O17" t="n">
-        <v>482.1379383197295</v>
+        <v>650.3889890356162</v>
       </c>
       <c r="P17" t="n">
         <v>698.4427880548112</v>
@@ -35907,7 +35907,7 @@
         <v>446.4996689280662</v>
       </c>
       <c r="R17" t="n">
-        <v>115.6679226101883</v>
+        <v>49.95150273720583</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.84843219863674</v>
+        <v>209.0480209831278</v>
       </c>
       <c r="K18" t="n">
         <v>227.3820710411405</v>
@@ -35983,7 +35983,7 @@
         <v>297.92121632076</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.928601440765</v>
+        <v>148.7290126562741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K19" t="n">
-        <v>248.1275858814441</v>
+        <v>248.1275858814442</v>
       </c>
       <c r="L19" t="n">
         <v>359.5956415340271</v>
       </c>
       <c r="M19" t="n">
-        <v>386.9140569696071</v>
+        <v>386.9140569696073</v>
       </c>
       <c r="N19" t="n">
-        <v>384.3947808111092</v>
+        <v>384.3947808111093</v>
       </c>
       <c r="O19" t="n">
-        <v>342.6969327483256</v>
+        <v>342.6969327483255</v>
       </c>
       <c r="P19" t="n">
         <v>276.7083382057921</v>
@@ -36135,7 +36135,7 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O20" t="n">
-        <v>584.6725691626351</v>
+        <v>584.6725691626342</v>
       </c>
       <c r="P20" t="n">
         <v>698.4427880548112</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>209.0480209831278</v>
+        <v>86.84843219863674</v>
       </c>
       <c r="K21" t="n">
         <v>227.3820710411405</v>
@@ -36220,7 +36220,7 @@
         <v>297.92121632076</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.7290126562741</v>
+        <v>270.928601440765</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K22" t="n">
-        <v>248.1275858814441</v>
+        <v>248.1275858814442</v>
       </c>
       <c r="L22" t="n">
         <v>359.5956415340271</v>
       </c>
       <c r="M22" t="n">
-        <v>386.9140569696071</v>
+        <v>386.9140569696073</v>
       </c>
       <c r="N22" t="n">
-        <v>384.3947808111092</v>
+        <v>384.3947808111093</v>
       </c>
       <c r="O22" t="n">
         <v>342.6969327483256</v>
@@ -36360,7 +36360,7 @@
         <v>346.8292814052485</v>
       </c>
       <c r="K23" t="n">
-        <v>317.6262227740114</v>
+        <v>641.7716353451762</v>
       </c>
       <c r="L23" t="n">
         <v>431.317922710235</v>
@@ -36372,10 +36372,10 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O23" t="n">
-        <v>584.6725691626351</v>
+        <v>582.3258647629544</v>
       </c>
       <c r="P23" t="n">
-        <v>698.4427880548112</v>
+        <v>376.6440798833285</v>
       </c>
       <c r="Q23" t="n">
         <v>446.4996689280662</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>90.79628638538885</v>
+        <v>90.79628638538887</v>
       </c>
       <c r="K25" t="n">
-        <v>248.1275858814441</v>
+        <v>248.1275858814442</v>
       </c>
       <c r="L25" t="n">
         <v>359.5956415340271</v>
@@ -36527,7 +36527,7 @@
         <v>386.9140569696073</v>
       </c>
       <c r="N25" t="n">
-        <v>384.3947808111095</v>
+        <v>384.3947808111093</v>
       </c>
       <c r="O25" t="n">
         <v>342.6969327483256</v>
@@ -36600,7 +36600,7 @@
         <v>641.7716353451762</v>
       </c>
       <c r="L26" t="n">
-        <v>848.9791372606854</v>
+        <v>592.958025889606</v>
       </c>
       <c r="M26" t="n">
         <v>511.9136258332429</v>
@@ -36609,7 +36609,7 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O26" t="n">
-        <v>606.9170082113947</v>
+        <v>862.9381195824749</v>
       </c>
       <c r="P26" t="n">
         <v>698.4427880548112</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.84843219863674</v>
+        <v>209.048020983127</v>
       </c>
       <c r="K27" t="n">
         <v>227.3820710411405</v>
@@ -36694,7 +36694,7 @@
         <v>297.92121632076</v>
       </c>
       <c r="Q27" t="n">
-        <v>270.9286014407645</v>
+        <v>148.7290126562741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052485</v>
       </c>
       <c r="K29" t="n">
         <v>641.7716353451762</v>
       </c>
       <c r="L29" t="n">
-        <v>848.9791372606854</v>
+        <v>431.317922710235</v>
       </c>
       <c r="M29" t="n">
         <v>511.9136258332429</v>
       </c>
       <c r="N29" t="n">
-        <v>962.204260404299</v>
+        <v>686.4974391716856</v>
       </c>
       <c r="O29" t="n">
         <v>862.9381195824749</v>
       </c>
       <c r="P29" t="n">
-        <v>376.6440798833285</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q29" t="n">
-        <v>244.026956488559</v>
+        <v>446.4996689280662</v>
       </c>
       <c r="R29" t="n">
         <v>115.6679226101883</v>
@@ -37071,22 +37071,22 @@
         <v>346.8292814052485</v>
       </c>
       <c r="K32" t="n">
-        <v>317.6262227740114</v>
+        <v>641.7716353451762</v>
       </c>
       <c r="L32" t="n">
-        <v>431.317922710235</v>
+        <v>490.8783789607099</v>
       </c>
       <c r="M32" t="n">
         <v>961.4271593260754</v>
       </c>
       <c r="N32" t="n">
-        <v>962.204260404299</v>
+        <v>524.8573359923148</v>
       </c>
       <c r="O32" t="n">
         <v>482.1379383197295</v>
       </c>
       <c r="P32" t="n">
-        <v>644.8017324644678</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q32" t="n">
         <v>446.4996689280662</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.84843219863674</v>
+        <v>209.0480209831271</v>
       </c>
       <c r="K33" t="n">
         <v>227.3820710411405</v>
@@ -37168,7 +37168,7 @@
         <v>297.92121632076</v>
       </c>
       <c r="Q33" t="n">
-        <v>270.9286014407645</v>
+        <v>148.7290126562741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.88073978789181</v>
+        <v>42.8807397878919</v>
       </c>
       <c r="K34" t="n">
-        <v>200.2120392839471</v>
+        <v>200.2120392839472</v>
       </c>
       <c r="L34" t="n">
-        <v>311.6800949365301</v>
+        <v>311.6800949365302</v>
       </c>
       <c r="M34" t="n">
-        <v>338.9985103721102</v>
+        <v>338.9985103721103</v>
       </c>
       <c r="N34" t="n">
-        <v>336.4792342136122</v>
+        <v>336.4792342136123</v>
       </c>
       <c r="O34" t="n">
         <v>294.7813861508286</v>
       </c>
       <c r="P34" t="n">
-        <v>228.7927916082951</v>
+        <v>228.7927916082952</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.79713918901865</v>
+        <v>74.79713918901874</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>317.6262227740114</v>
       </c>
       <c r="L35" t="n">
-        <v>848.9791372606854</v>
+        <v>431.317922710235</v>
       </c>
       <c r="M35" t="n">
         <v>511.9136258332429</v>
@@ -37320,13 +37320,13 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O35" t="n">
-        <v>701.1250534435719</v>
+        <v>584.6725691626351</v>
       </c>
       <c r="P35" t="n">
-        <v>376.6440798833285</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q35" t="n">
-        <v>234.1846782681615</v>
+        <v>446.4996689280662</v>
       </c>
       <c r="R35" t="n">
         <v>115.6679226101883</v>
@@ -37475,7 +37475,7 @@
         <v>386.9140569696073</v>
       </c>
       <c r="N37" t="n">
-        <v>384.3947808111093</v>
+        <v>384.3947808111092</v>
       </c>
       <c r="O37" t="n">
         <v>342.6969327483256</v>
@@ -37545,7 +37545,7 @@
         <v>346.8292814052485</v>
       </c>
       <c r="K38" t="n">
-        <v>641.7716353451762</v>
+        <v>317.6262227740114</v>
       </c>
       <c r="L38" t="n">
         <v>431.317922710235</v>
@@ -37557,10 +37557,10 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O38" t="n">
-        <v>482.1379383197295</v>
+        <v>584.6725691626351</v>
       </c>
       <c r="P38" t="n">
-        <v>476.8320063265524</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q38" t="n">
         <v>446.4996689280662</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.84843219863674</v>
+        <v>209.0480209831278</v>
       </c>
       <c r="K39" t="n">
         <v>227.3820710411405</v>
@@ -37636,7 +37636,7 @@
         <v>456.9025479163708</v>
       </c>
       <c r="O39" t="n">
-        <v>517.7319193953418</v>
+        <v>395.5323306108507</v>
       </c>
       <c r="P39" t="n">
         <v>297.92121632076</v>
@@ -37706,13 +37706,13 @@
         <v>248.1275858814442</v>
       </c>
       <c r="L40" t="n">
-        <v>359.5956415340271</v>
+        <v>359.5956415340272</v>
       </c>
       <c r="M40" t="n">
         <v>386.9140569696073</v>
       </c>
       <c r="N40" t="n">
-        <v>384.3947808111093</v>
+        <v>384.3947808111092</v>
       </c>
       <c r="O40" t="n">
         <v>342.6969327483256</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>177.7326662331748</v>
+        <v>346.8292814052485</v>
       </c>
       <c r="K41" t="n">
-        <v>641.7716353451762</v>
+        <v>420.1608536169169</v>
       </c>
       <c r="L41" t="n">
         <v>431.317922710235</v>
@@ -37794,16 +37794,16 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O41" t="n">
-        <v>862.9381195824749</v>
+        <v>482.1379383197295</v>
       </c>
       <c r="P41" t="n">
-        <v>543.1598507687676</v>
+        <v>698.4427880548112</v>
       </c>
       <c r="Q41" t="n">
-        <v>234.1846782681615</v>
+        <v>446.4996689280662</v>
       </c>
       <c r="R41" t="n">
-        <v>49.95150273720583</v>
+        <v>115.6679226101883</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>209.0480209831278</v>
+        <v>168.7787696106217</v>
       </c>
       <c r="K42" t="n">
         <v>227.3820710411405</v>
@@ -37882,7 +37882,7 @@
         <v>148.7290126562741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>40.26925137250593</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>346.8292814052485</v>
       </c>
       <c r="K44" t="n">
-        <v>420.1608536169169</v>
+        <v>317.6262227740114</v>
       </c>
       <c r="L44" t="n">
         <v>431.317922710235</v>
@@ -38031,7 +38031,7 @@
         <v>524.8573359923148</v>
       </c>
       <c r="O44" t="n">
-        <v>482.1379383197295</v>
+        <v>584.6725691626351</v>
       </c>
       <c r="P44" t="n">
         <v>698.4427880548112</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>86.84843219863674</v>
+        <v>168.7787696106217</v>
       </c>
       <c r="K45" t="n">
         <v>227.3820710411405</v>
@@ -38116,10 +38116,10 @@
         <v>297.92121632076</v>
       </c>
       <c r="Q45" t="n">
-        <v>270.928601440765</v>
+        <v>148.7290126562741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>40.26925137250593</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
